--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>888454.9608210451</v>
+        <v>826168.92016269</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335414.3901624704</v>
+        <v>189902.9539564203</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10905804.67830213</v>
+        <v>9102620.618728803</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7992412.720658096</v>
+        <v>8897968.848670168</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>102.8535291564769</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>78.48079605478875</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>89.06613335611762</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>41.38357661138726</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>244.5627323611424</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>209.9064962068211</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>208.6835142066282</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>57.71972083502472</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120.3721394168814</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>244.5627323611424</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>22.69098551756509</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141465</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611831</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>89.06613335611762</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>61.63452494711053</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>227.7664834517761</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852073</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>263.2420339516669</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U9" t="n">
-        <v>125.638434068502</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.3734398702014</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>215.6547928569976</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>131.817912311344</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>76.78471290126674</v>
       </c>
       <c r="G14" t="n">
-        <v>17.00019236662618</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -1703,10 +1703,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="F16" t="n">
-        <v>131.8179123113441</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>136.0635324958295</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -1903,10 +1903,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>301.8209891431496</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>28.92900240760887</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>283.8898270650866</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>164.1314710794257</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>115.3010325189712</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>104.8405888295624</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>1.707323882823353</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>28.10115714452288</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>172.0881830609751</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>84.95149223441527</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>94.6392697836404</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>155.2114886365804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>92.39479380343629</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>134.257450437519</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>128.7835007017899</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>152.969425654381</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -3088,16 +3088,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>79.86595197383281</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>86.88462298447456</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.1622158054968</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>47.40419526769269</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>230.7500495332066</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>89.06613335611772</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>162.3364906735233</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,16 +3511,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>51.83903723181706</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>84.95149223441572</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>85.64047902724785</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>261.9025067912344</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>402.4895887918559</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>6.808968459386874</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>11.67884460201108</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>128.7835007017899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3982,16 +3982,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>284.5615160058697</v>
+        <v>239.3859543850568</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>94.65568569260694</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="C2" t="n">
-        <v>720.6083788665362</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="D2" t="n">
-        <v>477.1596022224361</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="E2" t="n">
-        <v>477.1596022224361</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F2" t="n">
-        <v>477.1596022224361</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>233.7108255783361</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>2538.227947855305</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>2319.593280827367</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>2065.831495465459</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>1734.768608121888</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>1381.999952851774</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>1008.534194590694</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>618.3948626148824</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245.0892324518013</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>245.0892324518013</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>245.0892324518013</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>245.0892324518013</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>98.55467447868622</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>98.55467447868622</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>660.701031422288</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>660.701031422288</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>660.701031422288</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>452.8495312167552</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>245.0892324518013</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>767.4595009530259</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C5" t="n">
-        <v>767.4595009530259</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>767.4595009530259</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>725.6579084162711</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>478.6248454252182</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>478.6248454252182</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>231.5917824341652</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>19.56501858889139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>124.4399474973462</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>306.8231980260855</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
-        <v>526.3662512024591</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>734.8297429586089</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>886.4882690646268</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>978.2509294445696</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>978.2509294445696</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>978.2509294445696</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>767.4595009530259</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>767.4595009530259</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>767.4595009530259</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>767.4595009530259</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>767.4595009530259</v>
+        <v>2153.87838018277</v>
       </c>
       <c r="X5" t="n">
-        <v>767.4595009530259</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="Y5" t="n">
-        <v>767.4595009530259</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194.0180478700184</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>19.56501858889139</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>19.56501858889139</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>19.56501858889139</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>19.56501858889139</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>19.56501858889139</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>19.56501858889139</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>19.56501858889139</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>19.56501858889139</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>261.6821236264224</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>481.6032601595282</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>723.7203651970592</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>907.8577401332358</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>978.2509294445696</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>978.2509294445696</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>978.2509294445696</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>978.2509294445696</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
-        <v>978.2509294445696</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>978.2509294445696</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>731.2178664535166</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>523.3663662479838</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>315.6060674830299</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.0312465334349</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C7" t="n">
-        <v>158.0312465334349</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>158.0312465334349</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>158.0312465334349</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>135.111059141955</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>41.28197559507151</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>19.56501858889139</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>47.85425064936706</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>88.07040250863014</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>132.7649205860522</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0312465334349</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>158.0312465334349</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="U7" t="n">
-        <v>158.0312465334349</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="V7" t="n">
-        <v>158.0312465334349</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="W7" t="n">
-        <v>158.0312465334349</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X7" t="n">
-        <v>158.0312465334349</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y7" t="n">
-        <v>158.0312465334349</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>255.2650026197982</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C8" t="n">
-        <v>255.2650026197982</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>255.2650026197982</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>255.2650026197982</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>255.2650026197982</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>255.2650026197982</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19784761800413</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800413</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613335</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573684</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142364</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098028</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369336</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885148</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806668</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806668</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806668</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806668</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806668</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>1052.968135806668</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1052.968135806668</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>787.0670914110444</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>521.1660470154213</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>255.2650026197982</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.05936271613335</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>21.05936271613335</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613335</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613335</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613335</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613335</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613335</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>154.3302328992136</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>394.9337607940762</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>600.5536970360766</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>600.5536970360766</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>860.9667611285688</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806668</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806668</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806668</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806668</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806668</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
-        <v>926.0606266465645</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>690.9085184148217</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>436.6711616866201</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>228.8196614810873</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.05936271613335</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613335</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360305</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955241</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>150.08777394865</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716486</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706538</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706538</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>21.05936271613335</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>21.05936271613335</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T10" t="n">
-        <v>21.05936271613335</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U10" t="n">
-        <v>21.05936271613335</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>21.05936271613335</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2476.569858826099</v>
+        <v>1426.815961912944</v>
       </c>
       <c r="C11" t="n">
-        <v>2107.607341885688</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D11" t="n">
-        <v>1749.341643278937</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y11" t="n">
-        <v>2697.149091018222</v>
+        <v>1426.815961912944</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615927</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414846</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.07275543519</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.317569050019</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5159,10 +5159,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8405610245968</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8405610245968</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8405610245968</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E13" t="n">
-        <v>513.8405610245968</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F13" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5208,43 +5208,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>513.8405610245968</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>513.8405610245968</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>513.8405610245968</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V13" t="n">
-        <v>513.8405610245968</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W13" t="n">
-        <v>513.8405610245968</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X13" t="n">
-        <v>513.8405610245968</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y13" t="n">
-        <v>513.8405610245968</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C14" t="n">
-        <v>1348.549746658564</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D14" t="n">
-        <v>1348.549746658564</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="E14" t="n">
-        <v>962.76149406032</v>
+        <v>549.4671059840632</v>
       </c>
       <c r="F14" t="n">
-        <v>551.7755892707125</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533143</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W14" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X14" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y14" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5375,25 +5375,25 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8405610245969</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8405610245969</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8405610245969</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E16" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
         <v>53.94298182036445</v>
@@ -5463,25 +5463,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V16" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W16" t="n">
-        <v>513.8405610245969</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X16" t="n">
-        <v>513.8405610245969</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y16" t="n">
-        <v>513.8405610245969</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>207.4089578252748</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C17" t="n">
-        <v>207.4089578252748</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D17" t="n">
-        <v>207.4089578252748</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>207.4089578252748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5542,25 +5542,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2504.682489936767</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2286.047822908829</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2032.286037546921</v>
       </c>
       <c r="V17" t="n">
-        <v>1662.48357412947</v>
+        <v>2032.286037546921</v>
       </c>
       <c r="W17" t="n">
-        <v>1357.613888126288</v>
+        <v>2032.286037546921</v>
       </c>
       <c r="X17" t="n">
-        <v>984.1481298652084</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="Y17" t="n">
-        <v>594.0087978893966</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="18">
@@ -5585,7 +5585,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5594,31 +5594,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
         <v>2488.762748073963</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E19" t="n">
         <v>53.94298182036445</v>
@@ -5706,19 +5706,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005474</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W19" t="n">
-        <v>184.0273259635867</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>833.8914035503838</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C20" t="n">
-        <v>464.928886609972</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D20" t="n">
-        <v>464.928886609972</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E20" t="n">
-        <v>464.928886609972</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5752,10 +5752,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
         <v>881.2824271224075</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U20" t="n">
-        <v>2667.927876465082</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V20" t="n">
-        <v>2336.864989121511</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W20" t="n">
-        <v>1984.096333851397</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X20" t="n">
-        <v>1610.630575590317</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y20" t="n">
-        <v>1220.491243614505</v>
+        <v>1199.13500546934</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>380.6911546495019</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C22" t="n">
-        <v>380.6911546495019</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D22" t="n">
-        <v>380.6911546495019</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E22" t="n">
-        <v>380.6911546495019</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F22" t="n">
-        <v>380.6911546495019</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G22" t="n">
-        <v>211.6913543878343</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="H22" t="n">
         <v>53.94298182036445</v>
@@ -5943,19 +5943,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X22" t="n">
-        <v>562.3396194797416</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y22" t="n">
-        <v>562.3396194797416</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1701.775251950352</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C23" t="n">
-        <v>1701.775251950352</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.775251950352</v>
+        <v>1127.626707938434</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.986999352108</v>
+        <v>741.8384553401902</v>
       </c>
       <c r="F23" t="n">
-        <v>905.0010945625004</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>487.0372864606873</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>159.8425664966901</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6007,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2478.514423990286</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>2478.514423990286</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V23" t="n">
-        <v>2478.514423990286</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W23" t="n">
-        <v>2478.514423990286</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X23" t="n">
-        <v>2478.514423990286</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y23" t="n">
-        <v>2088.375092014474</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6080,13 +6080,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064343</v>
+        <v>352.67413830922</v>
       </c>
       <c r="C25" t="n">
-        <v>559.1928012785274</v>
+        <v>352.67413830922</v>
       </c>
       <c r="D25" t="n">
-        <v>409.0761618661917</v>
+        <v>202.5574988968843</v>
       </c>
       <c r="E25" t="n">
-        <v>409.0761618661917</v>
+        <v>202.5574988968843</v>
       </c>
       <c r="F25" t="n">
-        <v>409.0761618661917</v>
+        <v>55.6675513989739</v>
       </c>
       <c r="G25" t="n">
-        <v>240.0763616045241</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>82.32798903705424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6156,43 +6156,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064343</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064343</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064343</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064343</v>
+        <v>352.67413830922</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064343</v>
+        <v>352.67413830922</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064343</v>
+        <v>352.67413830922</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1194.175505447095</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C26" t="n">
-        <v>825.2129885066831</v>
+        <v>940.7524019189443</v>
       </c>
       <c r="D26" t="n">
-        <v>466.9472898999326</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E26" t="n">
-        <v>466.9472898999326</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F26" t="n">
-        <v>466.9472898999326</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W26" t="n">
-        <v>2344.380435748108</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X26" t="n">
-        <v>1970.914677487028</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y26" t="n">
-        <v>1580.775345511217</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V28" t="n">
-        <v>2697.149091018222</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W28" t="n">
-        <v>2407.731920981262</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X28" t="n">
-        <v>2179.742370083244</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1689.203741822952</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C29" t="n">
-        <v>1595.875667274027</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D29" t="n">
-        <v>1595.875667274027</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E29" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6496,19 +6496,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U29" t="n">
-        <v>2465.942913862886</v>
+        <v>2330.329327562361</v>
       </c>
       <c r="V29" t="n">
-        <v>2465.942913862886</v>
+        <v>1999.266440218791</v>
       </c>
       <c r="W29" t="n">
-        <v>2465.942913862886</v>
+        <v>1646.497784948677</v>
       </c>
       <c r="X29" t="n">
-        <v>2465.942913862886</v>
+        <v>1273.032026687597</v>
       </c>
       <c r="Y29" t="n">
-        <v>2075.803581887074</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
@@ -6554,31 +6554,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>2567.064746875</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>2312.380258669114</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W31" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>464.928886609972</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C32" t="n">
-        <v>464.928886609972</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="D32" t="n">
-        <v>464.928886609972</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="E32" t="n">
-        <v>464.928886609972</v>
+        <v>1100.104153946941</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>689.1182491573336</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U32" t="n">
-        <v>2048.575150942547</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V32" t="n">
-        <v>1967.902472181099</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W32" t="n">
-        <v>1615.133816910985</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X32" t="n">
-        <v>1241.668058649906</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y32" t="n">
-        <v>851.5287266740938</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="33">
@@ -6755,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2191.89927156006</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>288.595174757138</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T34" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U34" t="n">
-        <v>2191.89927156006</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V34" t="n">
-        <v>2191.89927156006</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W34" t="n">
-        <v>2191.89927156006</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X34" t="n">
-        <v>2191.89927156006</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="Y34" t="n">
-        <v>2191.89927156006</v>
+        <v>438.7118141694737</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1031.077791139709</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C35" t="n">
-        <v>1031.077791139709</v>
+        <v>940.7524019189443</v>
       </c>
       <c r="D35" t="n">
-        <v>672.8120925329588</v>
+        <v>582.4867033121939</v>
       </c>
       <c r="E35" t="n">
-        <v>287.0238399347145</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F35" t="n">
-        <v>287.0238399347145</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G35" t="n">
-        <v>287.0238399347145</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036446</v>
@@ -6943,7 +6943,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990286</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U35" t="n">
-        <v>2478.514423990286</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V35" t="n">
-        <v>2147.451536646715</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W35" t="n">
-        <v>1794.682881376601</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X35" t="n">
-        <v>1421.217123115521</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y35" t="n">
-        <v>1031.077791139709</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>217.9192350259436</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="C37" t="n">
-        <v>217.9192350259436</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D37" t="n">
-        <v>217.9192350259436</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E37" t="n">
-        <v>217.9192350259436</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>217.9192350259436</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
         <v>53.94298182036446</v>
@@ -7140,7 +7140,7 @@
         <v>438.7118141694737</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.9192350259436</v>
+        <v>438.7118141694737</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1194.175505447095</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C38" t="n">
-        <v>825.2129885066836</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D38" t="n">
-        <v>466.9472898999331</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="E38" t="n">
-        <v>466.9472898999331</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>466.9472898999331</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018223</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W38" t="n">
-        <v>2344.380435748109</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X38" t="n">
-        <v>1970.914677487029</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y38" t="n">
-        <v>1580.775345511217</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="39">
@@ -7250,19 +7250,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632153</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018223</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018223</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018223</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018223</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018223</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="W40" t="n">
-        <v>2432.60110436041</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X40" t="n">
-        <v>2204.611553462393</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y40" t="n">
-        <v>2204.611553462393</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1567.641263708175</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C41" t="n">
-        <v>1198.678746767763</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D41" t="n">
-        <v>1198.678746767763</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E41" t="n">
-        <v>1198.678746767763</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>787.6928419781555</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036445</v>
@@ -7414,16 +7414,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2635.242655630143</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2304.179768286572</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.380435748108</v>
+        <v>1951.411113016458</v>
       </c>
       <c r="X41" t="n">
-        <v>2344.380435748108</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="Y41" t="n">
-        <v>1954.241103772296</v>
+        <v>1577.945354755378</v>
       </c>
     </row>
     <row r="42">
@@ -7466,73 +7466,73 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2022.963088632153</v>
+        <v>65.73979454966857</v>
       </c>
       <c r="C43" t="n">
-        <v>2022.963088632153</v>
+        <v>65.73979454966857</v>
       </c>
       <c r="D43" t="n">
-        <v>2022.963088632153</v>
+        <v>65.73979454966857</v>
       </c>
       <c r="E43" t="n">
-        <v>2022.963088632153</v>
+        <v>65.73979454966857</v>
       </c>
       <c r="F43" t="n">
-        <v>2022.963088632153</v>
+        <v>65.73979454966857</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T43" t="n">
-        <v>2697.149091018222</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U43" t="n">
-        <v>2697.149091018222</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V43" t="n">
-        <v>2442.464602812336</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W43" t="n">
-        <v>2153.047432775375</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X43" t="n">
-        <v>2153.047432775375</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y43" t="n">
-        <v>2022.963088632153</v>
+        <v>65.73979454966857</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1577.945354755379</v>
+        <v>840.8693068625894</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.982837814967</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D44" t="n">
-        <v>850.7171392082163</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733127</v>
@@ -7666,34 +7666,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X44" t="n">
-        <v>2354.684526795312</v>
+        <v>1617.608478902523</v>
       </c>
       <c r="Y44" t="n">
-        <v>1964.5451948195</v>
+        <v>1227.469146926711</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7724,19 +7724,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7748,22 +7748,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>318.4909684781774</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>149.5547855502705</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7839,19 +7839,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>222.4246658592332</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,22 +8294,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>136.5653954824675</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>136.8385818314783</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M6" t="n">
-        <v>384.6945110063436</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>351.4290252218879</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2788254813442</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114201</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>337.2886456526679</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>118.4674613291452</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.6630807868109</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747125</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,7 +11378,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22549,28 +22549,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>127.189416472325</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>71.56218365249468</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>33.75464818170771</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,19 +22676,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22710,25 +22710,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>59.54933966209474</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,25 +22749,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22789,25 +22789,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>340.5467934608745</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>162.313313380569</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>415.2879682170718</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>94.7608136808341</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,28 +22828,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>148.9413660216818</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0311969618593</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3444713639914</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>291.5212478823883</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.16104423298596</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.5363898835276</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1328769967189</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9408621947163</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>7.132250799777211</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22950,22 +22950,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9843543597988</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1682702466266</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>132.5602576318105</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22983,28 +22983,28 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816417</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481479</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>176.9955073465141</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>223.9011423785076</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9172826158254</v>
+        <v>135.9689721019666</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3186679929276</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>303.638366823897</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>110.7608380391023</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>85.99893476574613</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>106.4890667268022</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.9959047043867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828962</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703753</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>100.2996914017153</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839141</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871611</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598916</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>15.59235192972113</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164.3604017932792</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>149.61809891401</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>13.60313571158727</v>
+        <v>50.78177823929093</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>330.0913328404447</v>
       </c>
       <c r="G14" t="n">
-        <v>396.7839776541688</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>51.79469286292885</v>
       </c>
       <c r="F16" t="n">
-        <v>13.60313571158716</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>38.35218031314207</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>47.41997957426344</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>51.79469286292885</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23946,16 +23946,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>222.2951651006804</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>102.3481115909669</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>61.53161905815483</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
@@ -24183,16 +24183,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>61.57818430961149</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>291.5750132227402</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>47.09072741529887</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.6024783762276</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>106.8644646478153</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>45.199959188537</v>
@@ -24411,13 +24411,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>182.5948585597079</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>328.8326777863797</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24657,19 +24657,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>63.37316471551443</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>272.8780979675713</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24736,16 +24736,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>116.9667170707703</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>50.78177823929093</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24894,10 +24894,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>157.4983735401879</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,19 +24925,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>260.8147443664139</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>247.8863064963021</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>59.54933966209461</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25128,16 +25128,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>11.1196584364809</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>334.5261748045691</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25171,10 +25171,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>93.17272323115057</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25314,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>78.18068774251012</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>4.973311585527568</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>330.0913328404447</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>328.8326777863792</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25596,13 +25596,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>139.3946264308364</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25611,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>24.62049154535657</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>11.29458122893914</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25684,19 +25684,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>244.4151990489024</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>155.6309576570398</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>89.80115265030491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>85.16958467259929</v>
+        <v>130.3451462934123</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>53.95978732560542</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26079,16 +26079,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448752.9057247415</v>
+        <v>769512.6051115735</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>451773.182970143</v>
+        <v>769512.6051115735</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>467445.7869376002</v>
+        <v>769512.6051115738</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115735</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115735</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115738</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115735</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149544.6052781992</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="C2" t="n">
-        <v>150588.1755146548</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="D2" t="n">
-        <v>156006.1355264979</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="E2" t="n">
         <v>260237.3490141816</v>
@@ -26343,19 +26343,19 @@
         <v>260237.3490141816</v>
       </c>
       <c r="L2" t="n">
+        <v>260237.3490141816</v>
+      </c>
+      <c r="M2" t="n">
         <v>260237.3490141817</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>260237.3490141816</v>
-      </c>
-      <c r="N2" t="n">
-        <v>260237.3490141817</v>
       </c>
       <c r="O2" t="n">
         <v>260237.3490141817</v>
       </c>
       <c r="P2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>4491.824968753434</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22364.98695753564</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.437683574</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>913.25580245714</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4727.563118847434</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906351</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16914.68964098084</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>16922.92270143587</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>16958.01308307726</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
         <v>18228.92756966326</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>48577.10433863014</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683336</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26490,28 +26490,28 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="J5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="J5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3579.215341908952</v>
+        <v>-436886.9495792548</v>
       </c>
       <c r="C6" t="n">
-        <v>80596.32350583535</v>
+        <v>153080.9296352896</v>
       </c>
       <c r="D6" t="n">
-        <v>66548.72807905165</v>
+        <v>153080.9296352897</v>
       </c>
       <c r="E6" t="n">
-        <v>-214943.4943024651</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="F6" t="n">
-        <v>192776.9433811089</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="G6" t="n">
-        <v>192776.9433811089</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="H6" t="n">
-        <v>192776.9433811089</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="I6" t="n">
-        <v>192776.943381109</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="J6" t="n">
-        <v>129717.0007820026</v>
+        <v>10285.31044269672</v>
       </c>
       <c r="K6" t="n">
-        <v>191863.6875786518</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="L6" t="n">
-        <v>188049.3802622615</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="M6" t="n">
-        <v>90342.82569047378</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="N6" t="n">
-        <v>192776.9433811089</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="O6" t="n">
-        <v>192776.943381109</v>
+        <v>186708.5296352898</v>
       </c>
       <c r="P6" t="n">
-        <v>192776.9433811089</v>
+        <v>186708.5296352898</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26776,7 +26776,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170867</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>244.5627323611424</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516669</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26810,28 +26810,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.3395197935473</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302969</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028886</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028887</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028886</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328569</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848223</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498795</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517679</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004121959</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508554916</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123063</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231644</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171231</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001181543845062855</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128860838</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452442</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05524901609789</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773435</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782306</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102001</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827147</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576677</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753246</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968795902</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646807</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367678</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>0.94748062488878</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381035002</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760444</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324508</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455499</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895175</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019332</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841738</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060786</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544932</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679592</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332537</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318453</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.00740128890429414</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104787</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125458</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246559</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750314</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688226</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430034</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418809</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104034</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523079</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210613</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605603</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523959</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467891</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994848</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259058</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047542</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166741</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471433</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988742</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>6.35056181584803</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150903</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131949</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705232</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473138</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>0.723223846075011</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588708</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815374</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
         <v>193.1674799081577</v>
@@ -31773,25 +31773,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
         <v>155.1528646479577</v>
@@ -31864,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32013,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32101,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32186,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>91.0829537758999</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>24.58512791403967</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>105.9342716247019</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>184.2255055845852</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>221.7606597741147</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>210.5691835920705</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>153.1904304101191</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>92.68955593933616</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M6" t="n">
-        <v>244.5627323611424</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>222.1425621546524</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>244.5627323611424</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>185.9973484203803</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>71.10423162760989</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
-        <v>28.57498187926835</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>40.62237561541726</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>45.14597785598184</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>25.52154136099265</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194293</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150182</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945115</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455866</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>166.289893789476</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>103.869644866821</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.6170405889699</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604673</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>207.6969052949499</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833254</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>193.94078250313</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178757</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082933</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507662</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919058</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025437</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35424,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
         <v>148.370846145888</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K14" t="n">
         <v>297.2230414343419</v>
@@ -35661,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35740,13 +35740,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37800,7 +37800,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
